--- a/Results/Amazon_Employee_Access_results.xlsx
+++ b/Results/Amazon_Employee_Access_results.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnico\OneDrive\Documents\Master\TFM\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC8324-48D9-4420-AA32-BFB0140DBCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C72FB2F-5F0D-4ADD-83EF-B624724B51DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
   <si>
     <t>Dataset</t>
   </si>
@@ -47,6 +34,9 @@
     <t>Encoder</t>
   </si>
   <si>
+    <t>EarlyStopping</t>
+  </si>
+  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -72,6 +62,9 @@
   </si>
   <si>
     <t>OneHotEncoding</t>
+  </si>
+  <si>
+    <t>NoEarlyStopping</t>
   </si>
   <si>
     <t>BalancedAccuracy</t>
@@ -455,25 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,359 +484,555 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>0.77984467098421872</v>
+      </c>
+      <c r="H2">
+        <v>1536.9774694442749</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1536.9774694442749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>0.73565185377522391</v>
-      </c>
-      <c r="G2">
-        <v>158.18673467636111</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>158.18673467636111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0.67950893803522527</v>
+      </c>
+      <c r="H3">
+        <v>27.379931688308719</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>27.379931688308719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0.72718138610731664</v>
+      </c>
+      <c r="H4">
+        <v>332.48709154129028</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>16.624354577064519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>0.78076788955496101</v>
+      </c>
+      <c r="H5">
+        <v>6.7645063400268546</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>6.7645063400268546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>0.7752815753922111</v>
-      </c>
-      <c r="G3">
-        <v>3469.1257271766658</v>
-      </c>
-      <c r="H3">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0.73440924046456968</v>
+      </c>
+      <c r="H6">
+        <v>2.4822876453399658</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2.4822876453399658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0.74561345741591623</v>
+      </c>
+      <c r="H7">
+        <v>9.7406244277954102</v>
+      </c>
+      <c r="I7">
         <v>20</v>
       </c>
-      <c r="I3">
-        <v>173.4562863588333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>0.76686018507020104</v>
-      </c>
-      <c r="G4">
-        <v>0.84343671798706055</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.84343671798706055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="J7">
+        <v>0.48703122138977051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>0.78491955078392039</v>
-      </c>
-      <c r="G5">
-        <v>18.387966394424438</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>0.91939831972122199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0.7687687136780601</v>
+      </c>
+      <c r="H8">
+        <v>5.0748558044433594</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5.0748558044433594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>0.72661942697729964</v>
+      </c>
+      <c r="H9">
+        <v>1.0516505241394041</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1.0516505241394041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>0.76353421490671858</v>
-      </c>
-      <c r="G6">
-        <v>0.88288569450378418</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0.88288569450378418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>0.77302229271798817</v>
-      </c>
-      <c r="G7">
-        <v>14.093194723129271</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>0.7046597361564636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>0.7733998590084683</v>
-      </c>
-      <c r="G8">
-        <v>1.7045207023620601</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1.7045207023620601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>0.77542065400502502</v>
-      </c>
-      <c r="G9">
-        <v>13.55687785148621</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>0.67784389257431032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>0.74902127542143804</v>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>0.92754578590393078</v>
+        <v>0.70263565731029809</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>11.25657224655151</v>
       </c>
       <c r="I10">
-        <v>0.92754578590393078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>0.56282861232757564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>0.75858602678588227</v>
+      <c r="F11" t="s">
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>13.639041900634769</v>
+        <v>0.77305898312993682</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>8.8020353317260742</v>
       </c>
       <c r="I11">
-        <v>0.68195209503173826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>8.8020353317260742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>0.77157051269989996</v>
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>3.5817739963531401</v>
+        <v>0.7733998590084683</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>1.221976041793823</v>
       </c>
       <c r="I12">
-        <f>G12/H12</f>
-        <v>3.5817739963531401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.221976041793823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>0.78531216955109695</v>
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>153.010873556137</v>
+        <v>0.76478811757489551</v>
       </c>
       <c r="H13">
+        <v>9.3672065734863281</v>
+      </c>
+      <c r="I13">
         <v>20</v>
       </c>
-      <c r="I13">
-        <f>G13/H13</f>
-        <v>7.6505436778068496</v>
+      <c r="J13">
+        <v>0.46836032867431637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0.64954118169468311</v>
+      </c>
+      <c r="H14">
+        <v>5.1363496780395508</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>5.1363496780395508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>0.76616714395561525</v>
+      </c>
+      <c r="H15">
+        <v>0.4272150993347168</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.4272150993347168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>0.76881355751488623</v>
+      </c>
+      <c r="H16">
+        <v>7.5255105495452881</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>0.37627552747726439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>0.78742892408659682</v>
+      </c>
+      <c r="H17">
+        <v>34.613198280334473</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>34.613198280334473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0.78592696914618587</v>
+      </c>
+      <c r="H18">
+        <v>402.47630524635309</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>20.12381526231766</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>